--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganclark/.ssh/blm_chatfield_restoration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB6F38E-548E-CE40-95E4-3BA119AB1281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59177642-1CEF-104C-8B9C-094C4E5DDDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14420" xr2:uid="{B9267D7C-AE26-154C-BFE5-B1A126C604CD}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14380" activeTab="2" xr2:uid="{B9267D7C-AE26-154C-BFE5-B1A126C604CD}"/>
   </bookViews>
   <sheets>
     <sheet name="pop_info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
   <si>
     <t>Population</t>
   </si>
@@ -220,16 +220,49 @@
     <t>15 - 20 Deg. F. / 2 - 3</t>
   </si>
   <si>
-    <t>Survival Rate</t>
-  </si>
-  <si>
-    <t>Standard Error</t>
-  </si>
-  <si>
-    <t>Flower Rate</t>
-  </si>
-  <si>
-    <t>Standard Error2</t>
+    <t>Survival_Rate</t>
+  </si>
+  <si>
+    <t>Standard_Error_sv</t>
+  </si>
+  <si>
+    <t>Flower_Rate</t>
+  </si>
+  <si>
+    <t>Standard_Error_fl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERNA-CO932-385-GUNNISON-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERNA-CO932-389-ROUTT-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ERNA-CO932-393-MESA-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERNA-CO932-394-MESA-20  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERNA-NV030-1347-LYON-17    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERNA-UT030-219-GARFIELD-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERNA-UT931-398-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ERNA-UT931-433-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERNA-UT931-436-10  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERNA-WY070-2-10  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERNA10-DBG-Chatfield-21  </t>
   </si>
 </sst>
 </file>
@@ -237,7 +270,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -286,7 +319,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -296,42 +329,6 @@
   <dxfs count="10">
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -386,7 +383,7 @@
         <family val="2"/>
         <scheme val="major"/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <font>
@@ -460,6 +457,42 @@
         <scheme val="major"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -474,15 +507,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{157D0002-1404-114A-8245-7BB7E2FE46D2}" name="Table1" displayName="Table1" ref="A1:F42" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{157D0002-1404-114A-8245-7BB7E2FE46D2}" name="Table1" displayName="Table1" ref="A1:F42" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:F42" xr:uid="{157D0002-1404-114A-8245-7BB7E2FE46D2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10E7FADB-FF38-FD49-9EE4-013CE53EB94C}" name="Population" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{FB185204-5790-BA44-B902-21C37E461F52}" name="Seed Zone" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{8581A15D-CB72-0D4C-A014-83FCC2E8EF1F}" name="Elevation (ft)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F7A5664C-510A-574B-A6E9-82FF2E1B8773}" name="Distance from CG (km)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{294834C9-1A23-0243-A730-7E2414000843}" name="Mean Annual Precipitation (mm)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{E821632B-CE3F-0046-8D52-EADC2E93142E}" name="Mean minimun winter temperature (C) " dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{10E7FADB-FF38-FD49-9EE4-013CE53EB94C}" name="Population" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FB185204-5790-BA44-B902-21C37E461F52}" name="Seed Zone" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{8581A15D-CB72-0D4C-A014-83FCC2E8EF1F}" name="Elevation (ft)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F7A5664C-510A-574B-A6E9-82FF2E1B8773}" name="Distance from CG (km)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{294834C9-1A23-0243-A730-7E2414000843}" name="Mean Annual Precipitation (mm)" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E821632B-CE3F-0046-8D52-EADC2E93142E}" name="Mean minimun winter temperature (C) " dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -493,10 +526,10 @@
   <autoFilter ref="A1:E22" xr:uid="{885CDD09-D500-F04B-9EE9-987CA948EE0C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5E136304-0149-F946-B54E-E394FD64E37E}" name="Population" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{03DE64FA-CCC7-644A-A075-38C25643CF32}" name="Survival Rate"/>
-    <tableColumn id="3" xr3:uid="{E6A8DEDD-9A72-9747-860E-A1D401074AEE}" name="Standard Error" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{7D9D8FFE-D89F-F645-AEDC-5B3651CB9E15}" name="Flower Rate"/>
-    <tableColumn id="5" xr3:uid="{5DDA291D-0614-E542-90E7-2476F7B491FE}" name="Standard Error2"/>
+    <tableColumn id="2" xr3:uid="{03DE64FA-CCC7-644A-A075-38C25643CF32}" name="Survival_Rate"/>
+    <tableColumn id="3" xr3:uid="{E6A8DEDD-9A72-9747-860E-A1D401074AEE}" name="Standard_Error_sv" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{7D9D8FFE-D89F-F645-AEDC-5B3651CB9E15}" name="Flower_Rate"/>
+    <tableColumn id="5" xr3:uid="{5DDA291D-0614-E542-90E7-2476F7B491FE}" name="Standard_Error_fl"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -801,7 +834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D12DB59-62FA-574B-9E1C-B921EA4675FA}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1670,7 +1703,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B22"/>
+      <selection sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2089,19 +2122,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71E4D81-5B76-8F45-ADBE-6503F29EB6C7}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2111,165 +2145,351 @@
       <c r="C1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>3.8730000000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.12962960000000001</v>
+      </c>
+      <c r="E2">
+        <v>4.5709590000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B3">
         <v>0.86670000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>4.3889999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.1153846</v>
+      </c>
+      <c r="E3">
+        <v>4.4304669999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>5.6570000000000002E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>4.7434160000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>5.1639999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.4791667</v>
+      </c>
+      <c r="E5">
+        <v>7.2106110000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>3.8730000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.55555560000000004</v>
+      </c>
+      <c r="E6">
+        <v>6.7620070000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B7">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.29411759999999998</v>
+      </c>
+      <c r="E7">
+        <v>6.3803079999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>0.88329999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>4.1439999999999998E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.45283020000000002</v>
+      </c>
+      <c r="E8">
+        <v>6.8373970000000006E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>0.7833</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>5.3190000000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.32608700000000002</v>
+      </c>
+      <c r="E9">
+        <v>6.9117769999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B10">
         <v>0.86670000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>4.3889999999999998E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.3504629999999999E-8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.2895190000000001E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.19607840000000001</v>
+      </c>
+      <c r="E11">
+        <v>5.5595119999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12">
         <v>0.7167</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>5.8169999999999999E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.1162791</v>
+      </c>
+      <c r="E12">
+        <v>4.8884829999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B13">
         <v>0.9667</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>2.316E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.31034479999999998</v>
+      </c>
+      <c r="E13">
+        <v>6.0746920000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B14">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>3.8730000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.40740739999999998</v>
+      </c>
+      <c r="E14">
+        <v>6.6864510000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B15">
         <v>0.91669999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>3.5680999999999997E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.8</v>
+      </c>
+      <c r="E15">
+        <v>5.3935990000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.9215689999999997E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.718052E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>0.77780000000000005</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>9.7989999999999994E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.71428570000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.1207363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>0.88329999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>4.1439999999999998E-2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.3504629999999999E-8</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.277296E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B19">
-        <v>0.83330000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="C19">
+        <v>4.811E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.02</v>
+      </c>
+      <c r="E19">
+        <v>1.9798989999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>0.86670000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>4.3889999999999998E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.3653846</v>
+      </c>
+      <c r="E20">
+        <v>6.6777279999999994E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>0.72219999999999995</v>
+      </c>
+      <c r="C21">
+        <v>7.4649999999999994E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.15384619999999999</v>
+      </c>
+      <c r="E21">
+        <v>7.0758940000000006E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganclark/.ssh/blm_chatfield_restoration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59177642-1CEF-104C-8B9C-094C4E5DDDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81D4898-5B82-C64A-BFCC-DE94BF0046DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14380" activeTab="2" xr2:uid="{B9267D7C-AE26-154C-BFE5-B1A126C604CD}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14380" xr2:uid="{B9267D7C-AE26-154C-BFE5-B1A126C604CD}"/>
   </bookViews>
   <sheets>
     <sheet name="pop_info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
   <si>
     <t>Population</t>
   </si>
@@ -115,30 +115,15 @@
     <t>ERNA-CO932-292-11</t>
   </si>
   <si>
-    <t>ERNA-CO932-385-GUNNISON-19</t>
-  </si>
-  <si>
     <t>ERNA-CO932-387-RIOBLANCO-19</t>
   </si>
   <si>
-    <t>ERNA-CO932-389-ROUTT-19</t>
-  </si>
-  <si>
     <t>ERNA-CO932-390-MONTROSE-20</t>
   </si>
   <si>
-    <t>ERNA-CO932-393-MESA-20</t>
-  </si>
-  <si>
-    <t>ERNA-CO932-394-MESA-20</t>
-  </si>
-  <si>
     <t>ERNA-NV030-1024-INYO-14</t>
   </si>
   <si>
-    <t>ERNA-NV030-1347-LYON-17</t>
-  </si>
-  <si>
     <t>ERNA-NV030-1366-WASHOE-17</t>
   </si>
   <si>
@@ -151,24 +136,6 @@
     <t>ERNA-NV030-926-WASHOE-13</t>
   </si>
   <si>
-    <t>ERNA-UT030-219-GARFIELD-13</t>
-  </si>
-  <si>
-    <t>ERNA-UT931-398-10</t>
-  </si>
-  <si>
-    <t>ERNA-UT931-433-10</t>
-  </si>
-  <si>
-    <t>ERNA-UT931-436-10</t>
-  </si>
-  <si>
-    <t>ERNA-WY070-2-10</t>
-  </si>
-  <si>
-    <t>ERNA10-DBG-Chatfield-21</t>
-  </si>
-  <si>
     <t>Distance from CG (km)</t>
   </si>
   <si>
@@ -263,16 +230,118 @@
   </si>
   <si>
     <t xml:space="preserve">ERNA10-DBG-Chatfield-21  </t>
+  </si>
+  <si>
+    <t>AZ1</t>
+  </si>
+  <si>
+    <t>AZ2</t>
+  </si>
+  <si>
+    <t>AZ3</t>
+  </si>
+  <si>
+    <t>AZ4</t>
+  </si>
+  <si>
+    <t>AZ5</t>
+  </si>
+  <si>
+    <t>CO1</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CO3</t>
+  </si>
+  <si>
+    <t>CO4</t>
+  </si>
+  <si>
+    <t>CO5</t>
+  </si>
+  <si>
+    <t>CO6</t>
+  </si>
+  <si>
+    <t>NM1</t>
+  </si>
+  <si>
+    <t>NM2</t>
+  </si>
+  <si>
+    <t>NM3</t>
+  </si>
+  <si>
+    <t>NM4</t>
+  </si>
+  <si>
+    <t>NM5</t>
+  </si>
+  <si>
+    <t>UT1</t>
+  </si>
+  <si>
+    <t>UT2</t>
+  </si>
+  <si>
+    <t>WY1</t>
+  </si>
+  <si>
+    <t>WY2</t>
+  </si>
+  <si>
+    <t>WY3</t>
+  </si>
+  <si>
+    <t>CO7</t>
+  </si>
+  <si>
+    <t>CO8</t>
+  </si>
+  <si>
+    <t>NV1</t>
+  </si>
+  <si>
+    <t>NV2</t>
+  </si>
+  <si>
+    <t>NV3</t>
+  </si>
+  <si>
+    <t>NV4</t>
+  </si>
+  <si>
+    <t>NV5</t>
+  </si>
+  <si>
+    <t>NV6</t>
+  </si>
+  <si>
+    <t>UT3</t>
+  </si>
+  <si>
+    <t>UT4</t>
+  </si>
+  <si>
+    <t>CG1</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>B. Gracilis</t>
+  </si>
+  <si>
+    <t>E. nauseosa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -289,6 +358,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -316,20 +393,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -365,6 +440,7 @@
         <family val="2"/>
         <scheme val="major"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -383,7 +459,26 @@
         <family val="2"/>
         <scheme val="major"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -404,22 +499,7 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
       <font>
@@ -507,17 +587,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{157D0002-1404-114A-8245-7BB7E2FE46D2}" name="Table1" displayName="Table1" ref="A1:F42" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:F42" xr:uid="{157D0002-1404-114A-8245-7BB7E2FE46D2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{157D0002-1404-114A-8245-7BB7E2FE46D2}" name="Table1" displayName="Table1" ref="B1:G42" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B1:G42" xr:uid="{157D0002-1404-114A-8245-7BB7E2FE46D2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10E7FADB-FF38-FD49-9EE4-013CE53EB94C}" name="Population" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{FB185204-5790-BA44-B902-21C37E461F52}" name="Seed Zone" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{8581A15D-CB72-0D4C-A014-83FCC2E8EF1F}" name="Elevation (ft)" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F7A5664C-510A-574B-A6E9-82FF2E1B8773}" name="Distance from CG (km)" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{294834C9-1A23-0243-A730-7E2414000843}" name="Mean Annual Precipitation (mm)" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E821632B-CE3F-0046-8D52-EADC2E93142E}" name="Mean minimun winter temperature (C) " dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{CF01C1E8-69D4-0949-A01A-11A1A5DA7CDC}" name="Population" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{FB185204-5790-BA44-B902-21C37E461F52}" name="Seed Zone" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{8581A15D-CB72-0D4C-A014-83FCC2E8EF1F}" name="Elevation (ft)" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F7A5664C-510A-574B-A6E9-82FF2E1B8773}" name="Distance from CG (km)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{294834C9-1A23-0243-A730-7E2414000843}" name="Mean Annual Precipitation (mm)" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E821632B-CE3F-0046-8D52-EADC2E93142E}" name="Mean minimun winter temperature (C) " dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -525,9 +605,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{885CDD09-D500-F04B-9EE9-987CA948EE0C}" name="Table2" displayName="Table2" ref="A1:E22" totalsRowShown="0">
   <autoFilter ref="A1:E22" xr:uid="{885CDD09-D500-F04B-9EE9-987CA948EE0C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5E136304-0149-F946-B54E-E394FD64E37E}" name="Population" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5E136304-0149-F946-B54E-E394FD64E37E}" name="Population" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{03DE64FA-CCC7-644A-A075-38C25643CF32}" name="Survival_Rate"/>
-    <tableColumn id="3" xr3:uid="{E6A8DEDD-9A72-9747-860E-A1D401074AEE}" name="Standard_Error_sv" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E6A8DEDD-9A72-9747-860E-A1D401074AEE}" name="Standard_Error_sv" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{7D9D8FFE-D89F-F645-AEDC-5B3651CB9E15}" name="Flower_Rate"/>
     <tableColumn id="5" xr3:uid="{5DDA291D-0614-E542-90E7-2476F7B491FE}" name="Standard_Error_fl"/>
   </tableColumns>
@@ -832,860 +912,986 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D12DB59-62FA-574B-9E1C-B921EA4675FA}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4665</v>
+      </c>
+      <c r="E2" s="4">
+        <v>999.17598999999996</v>
+      </c>
+      <c r="F2" s="4">
+        <v>388.42802</v>
+      </c>
+      <c r="G2" s="4">
+        <v>-0.55693968500000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4410</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1019.96189</v>
+      </c>
+      <c r="F3" s="4">
+        <v>461.47435899999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-0.24953492099999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4448</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1021.54566</v>
+      </c>
+      <c r="F4" s="4">
+        <v>461.47435899999999</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-0.24953492099999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6987</v>
+      </c>
+      <c r="E5" s="4">
+        <v>794.91750999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>695.91125</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-3.3610690499999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6797</v>
+      </c>
+      <c r="E6" s="4">
+        <v>793.28132000000005</v>
+      </c>
+      <c r="F6" s="4">
+        <v>695.91125</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-3.3610690499999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6595</v>
+      </c>
+      <c r="E7" s="4">
+        <v>19.73396</v>
+      </c>
+      <c r="F7" s="4">
+        <v>522.60151099999996</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-8.8694595189999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6504</v>
+      </c>
+      <c r="E8" s="4">
+        <v>27.967369999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>465.246307</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-6.8529357209999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7428</v>
+      </c>
+      <c r="E9" s="4">
+        <v>24.267520000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>503.96968399999997</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-10.16996426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5860</v>
+      </c>
+      <c r="E10" s="4">
+        <v>112.43492999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>444.74899900000003</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-7.1734460269999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7540</v>
+      </c>
+      <c r="E11" s="4">
+        <v>137.75864999999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>249.89162400000001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-9.8885476400000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7610</v>
+      </c>
+      <c r="E12" s="4">
+        <v>41.946800000000003</v>
+      </c>
+      <c r="F12" s="4">
+        <v>438.70936599999999</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-9.7219127019999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6029</v>
+      </c>
+      <c r="E13" s="4">
+        <v>834.75446999999997</v>
+      </c>
+      <c r="F13" s="4">
+        <v>420.05339400000003</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-2.6439992069999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5083</v>
+      </c>
+      <c r="E14" s="4">
+        <v>16.683229999999998</v>
+      </c>
+      <c r="F14" s="4">
+        <v>328.92330199999998</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-1.2911150810000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5079</v>
+      </c>
+      <c r="E15" s="4">
+        <v>631.12860999999998</v>
+      </c>
+      <c r="F15" s="4">
+        <v>277.00755299999997</v>
+      </c>
+      <c r="G15" s="4">
+        <v>-5.0769714170000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4649</v>
+      </c>
+      <c r="E16" s="4">
+        <v>796.05949999999996</v>
+      </c>
+      <c r="F16" s="4">
+        <v>332.63113700000002</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-2.1270190410000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7134</v>
+      </c>
+      <c r="E17" s="4">
+        <v>429.55927000000003</v>
+      </c>
+      <c r="F17" s="4">
+        <v>323.666312</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-9.5810873240000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5839</v>
+      </c>
+      <c r="E18" s="4">
+        <v>587.86064999999996</v>
+      </c>
+      <c r="F18" s="4">
+        <v>259.110388</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-5.1048317389999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5800</v>
+      </c>
+      <c r="E19" s="4">
+        <v>432.46976999999998</v>
+      </c>
+      <c r="F19" s="4">
+        <v>294.351159</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-8.3975873140000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4766</v>
+      </c>
+      <c r="E20" s="4">
+        <v>491.29834</v>
+      </c>
+      <c r="F20" s="4">
+        <v>206.58573799999999</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-12.994007160000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4800</v>
+      </c>
+      <c r="E21" s="4">
+        <v>490.96433999999999</v>
+      </c>
+      <c r="F21" s="4">
+        <v>206.58573799999999</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-12.994007160000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4633</v>
+      </c>
+      <c r="E22" s="4">
+        <v>520.91558999999995</v>
+      </c>
+      <c r="F22" s="4">
+        <v>388.26472100000001</v>
+      </c>
+      <c r="G22" s="4">
+        <v>-9.5534984380000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6021</v>
+      </c>
+      <c r="E23" s="4">
+        <v>28.77571</v>
+      </c>
+      <c r="F23" s="4">
+        <v>482.11110200000002</v>
+      </c>
+      <c r="G23" s="4">
+        <v>-7.0062991999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6340</v>
+      </c>
+      <c r="E24" s="4">
+        <v>19.028510000000001</v>
+      </c>
+      <c r="F24" s="4">
+        <v>520.14271029999998</v>
+      </c>
+      <c r="G24" s="4">
+        <v>-8.0549540000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8192</v>
+      </c>
+      <c r="E25" s="4">
+        <v>192.78362999999999</v>
+      </c>
+      <c r="F25" s="4">
+        <v>368.55949029999999</v>
+      </c>
+      <c r="G25" s="4">
+        <v>-14.171211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6758</v>
+      </c>
+      <c r="E26" s="4">
+        <v>288.15039999999999</v>
+      </c>
+      <c r="F26" s="4">
+        <v>428.9719308</v>
+      </c>
+      <c r="G26" s="4">
+        <v>-8.7198445000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D27" s="1">
+        <v>7194</v>
+      </c>
+      <c r="E27" s="4">
+        <v>151.82535999999999</v>
+      </c>
+      <c r="F27" s="4">
+        <v>364.51450260000001</v>
+      </c>
+      <c r="G27" s="4">
+        <v>-12.633314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7319</v>
+      </c>
+      <c r="E28" s="4">
+        <v>285.35789</v>
+      </c>
+      <c r="F28" s="4">
+        <v>366.28269999999998</v>
+      </c>
+      <c r="G28" s="4">
+        <v>-8.1973269999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7162</v>
+      </c>
+      <c r="E29" s="4">
+        <v>354.61561</v>
+      </c>
+      <c r="F29" s="4">
+        <v>448.92069249999997</v>
+      </c>
+      <c r="G29" s="4">
+        <v>-6.4371254000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7070</v>
+      </c>
+      <c r="E30" s="4">
+        <v>354.39103999999998</v>
+      </c>
+      <c r="F30" s="4">
+        <v>500.93280290000001</v>
+      </c>
+      <c r="G30" s="4">
+        <v>-6.3863222000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7408</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1167.1438800000001</v>
+      </c>
+      <c r="F31" s="4">
+        <v>272.14847150000003</v>
+      </c>
+      <c r="G31" s="4">
+        <v>-6.0553976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="1">
-        <v>4665</v>
-      </c>
-      <c r="D2" s="1">
-        <v>999.17598999999996</v>
-      </c>
-      <c r="E2" s="2">
-        <v>388.42802</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-0.55693968500000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D32" s="1">
+        <v>4206</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1220.2473</v>
+      </c>
+      <c r="F32" s="4">
+        <v>141.6444382</v>
+      </c>
+      <c r="G32" s="4">
+        <v>-5.6111912999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4420</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1253.5092299999999</v>
+      </c>
+      <c r="F33" s="4">
+        <v>229.4136977</v>
+      </c>
+      <c r="G33" s="4">
+        <v>-2.9681142999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5033</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1262.37754</v>
+      </c>
+      <c r="F34" s="4">
+        <v>369.92893939999999</v>
+      </c>
+      <c r="G34" s="4">
+        <v>-4.4713507999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5753</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1270.02216</v>
+      </c>
+      <c r="F35" s="4">
+        <v>563.02061590000005</v>
+      </c>
+      <c r="G35" s="4">
+        <v>-4.8386373000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4993</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1258.75575</v>
+      </c>
+      <c r="F36" s="4">
+        <v>306.01303030000003</v>
+      </c>
+      <c r="G36" s="4">
+        <v>-5.0013024000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="1">
-        <v>4410</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1019.96189</v>
-      </c>
-      <c r="E3" s="2">
-        <v>461.47435899999999</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-0.24953492099999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4448</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1021.54566</v>
-      </c>
-      <c r="E4" s="2">
-        <v>461.47435899999999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-0.24953492099999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D37" s="1">
+        <v>5475</v>
+      </c>
+      <c r="E37" s="4">
+        <v>597.12354000000005</v>
+      </c>
+      <c r="F37" s="4">
+        <v>269.99893370000001</v>
+      </c>
+      <c r="G37" s="4">
+        <v>-5.3121007999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7617</v>
+      </c>
+      <c r="E38" s="4">
+        <v>524.14694999999995</v>
+      </c>
+      <c r="F38" s="4">
+        <v>601.40369729999998</v>
+      </c>
+      <c r="G38" s="4">
+        <v>-12.954478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1">
-        <v>6987</v>
-      </c>
-      <c r="D5" s="1">
-        <v>794.91750999999999</v>
-      </c>
-      <c r="E5" s="2">
-        <v>695.91125</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-3.3610690499999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6797</v>
-      </c>
-      <c r="D6" s="1">
-        <v>793.28132000000005</v>
-      </c>
-      <c r="E6" s="2">
-        <v>695.91125</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-3.3610690499999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6595</v>
-      </c>
-      <c r="D7" s="1">
-        <v>19.73396</v>
-      </c>
-      <c r="E7" s="2">
-        <v>522.60151099999996</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-8.8694595189999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6504</v>
-      </c>
-      <c r="D8" s="1">
-        <v>27.967369999999999</v>
-      </c>
-      <c r="E8" s="2">
-        <v>465.246307</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-6.8529357209999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7428</v>
-      </c>
-      <c r="D9" s="1">
-        <v>24.267520000000001</v>
-      </c>
-      <c r="E9" s="2">
-        <v>503.96968399999997</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-10.16996426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5860</v>
-      </c>
-      <c r="D10" s="1">
-        <v>112.43492999999999</v>
-      </c>
-      <c r="E10" s="2">
-        <v>444.74899900000003</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-7.1734460269999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7540</v>
-      </c>
-      <c r="D11" s="1">
-        <v>137.75864999999999</v>
-      </c>
-      <c r="E11" s="2">
-        <v>249.89162400000001</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-9.8885476400000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7610</v>
-      </c>
-      <c r="D12" s="1">
-        <v>41.946800000000003</v>
-      </c>
-      <c r="E12" s="2">
-        <v>438.70936599999999</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-9.7219127019999991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6029</v>
-      </c>
-      <c r="D13" s="1">
-        <v>834.75446999999997</v>
-      </c>
-      <c r="E13" s="2">
-        <v>420.05339400000003</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-2.6439992069999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5083</v>
-      </c>
-      <c r="D14" s="1">
-        <v>16.683229999999998</v>
-      </c>
-      <c r="E14" s="2">
-        <v>328.92330199999998</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-1.2911150810000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5079</v>
-      </c>
-      <c r="D15" s="1">
-        <v>631.12860999999998</v>
-      </c>
-      <c r="E15" s="2">
-        <v>277.00755299999997</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-5.0769714170000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4649</v>
-      </c>
-      <c r="D16" s="1">
-        <v>796.05949999999996</v>
-      </c>
-      <c r="E16" s="2">
-        <v>332.63113700000002</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-2.1270190410000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1">
-        <v>7134</v>
-      </c>
-      <c r="D17" s="1">
-        <v>429.55927000000003</v>
-      </c>
-      <c r="E17" s="2">
-        <v>323.666312</v>
-      </c>
-      <c r="F17" s="1">
-        <v>-9.5810873240000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5839</v>
-      </c>
-      <c r="D18" s="1">
-        <v>587.86064999999996</v>
-      </c>
-      <c r="E18" s="2">
-        <v>259.110388</v>
-      </c>
-      <c r="F18" s="1">
-        <v>-5.1048317389999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5800</v>
-      </c>
-      <c r="D19" s="1">
-        <v>432.46976999999998</v>
-      </c>
-      <c r="E19" s="2">
-        <v>294.351159</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-8.3975873140000008</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4766</v>
-      </c>
-      <c r="D20" s="1">
-        <v>491.29834</v>
-      </c>
-      <c r="E20" s="2">
-        <v>206.58573799999999</v>
-      </c>
-      <c r="F20" s="1">
-        <v>-12.994007160000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4800</v>
-      </c>
-      <c r="D21" s="1">
-        <v>490.96433999999999</v>
-      </c>
-      <c r="E21" s="2">
-        <v>206.58573799999999</v>
-      </c>
-      <c r="F21" s="1">
-        <v>-12.994007160000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4633</v>
-      </c>
-      <c r="D22" s="1">
-        <v>520.91558999999995</v>
-      </c>
-      <c r="E22" s="2">
-        <v>388.26472100000001</v>
-      </c>
-      <c r="F22" s="1">
-        <v>-9.5534984380000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6021</v>
-      </c>
-      <c r="D23" s="1">
-        <v>28.77571</v>
-      </c>
-      <c r="E23" s="2">
-        <v>482.11110200000002</v>
-      </c>
-      <c r="F23" s="1">
-        <v>-7.0062991999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="1">
-        <v>6340</v>
-      </c>
-      <c r="D24" s="1">
-        <v>19.028510000000001</v>
-      </c>
-      <c r="E24" s="2">
-        <v>520.14271029999998</v>
-      </c>
-      <c r="F24" s="1">
-        <v>-8.0549540000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="1">
-        <v>8192</v>
-      </c>
-      <c r="D25" s="1">
-        <v>192.78362999999999</v>
-      </c>
-      <c r="E25" s="2">
-        <v>368.55949029999999</v>
-      </c>
-      <c r="F25" s="1">
-        <v>-14.171211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6758</v>
-      </c>
-      <c r="D26" s="1">
-        <v>288.15039999999999</v>
-      </c>
-      <c r="E26" s="2">
-        <v>428.9719308</v>
-      </c>
-      <c r="F26" s="1">
-        <v>-8.7198445000000007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="1">
-        <v>7194</v>
-      </c>
-      <c r="D27" s="1">
-        <v>151.82535999999999</v>
-      </c>
-      <c r="E27" s="2">
-        <v>364.51450260000001</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-12.633314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="1">
-        <v>7319</v>
-      </c>
-      <c r="D28" s="1">
-        <v>285.35789</v>
-      </c>
-      <c r="E28" s="2">
-        <v>366.28269999999998</v>
-      </c>
-      <c r="F28" s="1">
-        <v>-8.1973269999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="1">
-        <v>7162</v>
-      </c>
-      <c r="D29" s="1">
-        <v>354.61561</v>
-      </c>
-      <c r="E29" s="2">
-        <v>448.92069249999997</v>
-      </c>
-      <c r="F29" s="1">
-        <v>-6.4371254000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="1">
-        <v>7070</v>
-      </c>
-      <c r="D30" s="1">
-        <v>354.39103999999998</v>
-      </c>
-      <c r="E30" s="2">
-        <v>500.93280290000001</v>
-      </c>
-      <c r="F30" s="1">
-        <v>-6.3863222000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="1">
-        <v>7408</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1167.1438800000001</v>
-      </c>
-      <c r="E31" s="2">
-        <v>272.14847150000003</v>
-      </c>
-      <c r="F31" s="1">
-        <v>-6.0553976</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="1">
-        <v>4206</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1220.2473</v>
-      </c>
-      <c r="E32" s="2">
-        <v>141.6444382</v>
-      </c>
-      <c r="F32" s="1">
-        <v>-5.6111912999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="1">
-        <v>4420</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1253.5092299999999</v>
-      </c>
-      <c r="E33" s="2">
-        <v>229.4136977</v>
-      </c>
-      <c r="F33" s="1">
-        <v>-2.9681142999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="1">
-        <v>5033</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1262.37754</v>
-      </c>
-      <c r="E34" s="2">
-        <v>369.92893939999999</v>
-      </c>
-      <c r="F34" s="1">
-        <v>-4.4713507999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="1">
-        <v>5753</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1270.02216</v>
-      </c>
-      <c r="E35" s="2">
-        <v>563.02061590000005</v>
-      </c>
-      <c r="F35" s="1">
-        <v>-4.8386373000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="1">
-        <v>4993</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1258.75575</v>
-      </c>
-      <c r="E36" s="2">
-        <v>306.01303030000003</v>
-      </c>
-      <c r="F36" s="1">
-        <v>-5.0013024000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5475</v>
-      </c>
-      <c r="D37" s="1">
-        <v>597.12354000000005</v>
-      </c>
-      <c r="E37" s="2">
-        <v>269.99893370000001</v>
-      </c>
-      <c r="F37" s="1">
-        <v>-5.3121007999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="1">
-        <v>7617</v>
-      </c>
-      <c r="D38" s="1">
-        <v>524.14694999999995</v>
-      </c>
-      <c r="E38" s="2">
-        <v>601.40369729999998</v>
-      </c>
-      <c r="F38" s="1">
-        <v>-12.954478</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="D39" s="1">
+        <v>5400</v>
+      </c>
+      <c r="E39" s="4">
+        <v>611.43361000000004</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1044.9736869999999</v>
+      </c>
+      <c r="G39" s="4">
+        <v>-7.7385951999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5400</v>
-      </c>
-      <c r="D39" s="1">
-        <v>611.43361000000004</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1044.9736869999999</v>
-      </c>
-      <c r="F39" s="1">
-        <v>-7.7385951999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="D40" s="1">
+        <v>5300</v>
+      </c>
+      <c r="E40" s="4">
+        <v>602.55767000000003</v>
+      </c>
+      <c r="F40" s="4">
+        <v>641.79514719999997</v>
+      </c>
+      <c r="G40" s="4">
+        <v>-5.8598476000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="1">
-        <v>5300</v>
-      </c>
-      <c r="D40" s="1">
-        <v>602.55767000000003</v>
-      </c>
-      <c r="E40" s="2">
-        <v>641.79514719999997</v>
-      </c>
-      <c r="F40" s="1">
-        <v>-5.8598476000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>4473</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="4">
         <v>546.87806</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="4">
         <v>330.0884279</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="4">
         <v>-10.292049</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="1">
+        <v>95</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="1">
         <v>5500</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="4">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="4">
         <v>443.70636109999998</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="4">
         <v>-7.7149182999999999</v>
       </c>
     </row>
@@ -1722,18 +1928,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1742,7 +1948,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2.6786259999999999E-6</v>
       </c>
       <c r="D2">
@@ -1751,7 +1957,7 @@
       <c r="E2">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1760,7 +1966,7 @@
       <c r="B3">
         <v>0.9667</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2.317406E-2</v>
       </c>
       <c r="D3">
@@ -1769,7 +1975,7 @@
       <c r="E3">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1778,7 +1984,7 @@
       <c r="B4">
         <v>0.98329999999999995</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1.6527190000000001E-2</v>
       </c>
       <c r="D4">
@@ -1787,7 +1993,7 @@
       <c r="E4">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1796,7 +2002,7 @@
       <c r="B5">
         <v>0.98360000000000003</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1.625851E-2</v>
       </c>
       <c r="D5">
@@ -1805,7 +2011,7 @@
       <c r="E5">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1814,7 +2020,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>2.6786259999999999E-6</v>
       </c>
       <c r="D6">
@@ -1823,7 +2029,7 @@
       <c r="E6">
         <v>2.317E-2</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1832,7 +2038,7 @@
       <c r="B7">
         <v>0.98329999999999995</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1.6527190000000001E-2</v>
       </c>
       <c r="D7">
@@ -1841,7 +2047,7 @@
       <c r="E7">
         <v>3.27E-2</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1850,7 +2056,7 @@
       <c r="B8">
         <v>0.9667</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>2.317406E-2</v>
       </c>
       <c r="D8">
@@ -1859,7 +2065,7 @@
       <c r="E8">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1868,7 +2074,7 @@
       <c r="B9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>3.2203059999999999E-2</v>
       </c>
       <c r="D9">
@@ -1877,7 +2083,7 @@
       <c r="E9">
         <v>1.77E-2</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1886,7 +2092,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>2.6786259999999999E-6</v>
       </c>
       <c r="D10">
@@ -1895,7 +2101,7 @@
       <c r="E10">
         <v>2.317E-2</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1904,7 +2110,7 @@
       <c r="B11">
         <v>0.98333000000000004</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1.6527190000000001E-2</v>
       </c>
       <c r="D11">
@@ -1913,7 +2119,7 @@
       <c r="E11">
         <v>2.35E-2</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1922,7 +2128,7 @@
       <c r="B12">
         <v>0.95</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>2.813657E-2</v>
       </c>
       <c r="D12">
@@ -1931,7 +2137,7 @@
       <c r="E12">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1940,7 +2146,7 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>2.7012309999999999E-6</v>
       </c>
       <c r="D13">
@@ -1949,7 +2155,7 @@
       <c r="E13">
         <v>3.27E-2</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1958,7 +2164,7 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>2.6786259999999999E-6</v>
       </c>
       <c r="D14">
@@ -1967,7 +2173,7 @@
       <c r="E14">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -1976,7 +2182,7 @@
       <c r="B15">
         <v>0.98329999999999995</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1.6527190000000001E-2</v>
       </c>
       <c r="D15">
@@ -1985,7 +2191,7 @@
       <c r="E15">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1994,7 +2200,7 @@
       <c r="B16">
         <v>0.95</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>2.813657E-2</v>
       </c>
       <c r="D16">
@@ -2003,7 +2209,7 @@
       <c r="E16">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -2012,7 +2218,7 @@
       <c r="B17">
         <v>0.94730000000000003</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>5.122782E-2</v>
       </c>
       <c r="D17">
@@ -2021,7 +2227,7 @@
       <c r="E17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -2030,7 +2236,7 @@
       <c r="B18">
         <v>0.98329999999999995</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>1.6527190000000001E-2</v>
       </c>
       <c r="D18">
@@ -2039,7 +2245,7 @@
       <c r="E18">
         <v>3.27E-2</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -2048,16 +2254,16 @@
       <c r="B19">
         <v>0.875</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>0.1169268</v>
       </c>
       <c r="D19">
         <v>0.99990000000000001</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>9.5537730000000001E-5</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2066,7 +2272,7 @@
       <c r="B20">
         <v>0.93330000000000002</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>3.2203059999999999E-2</v>
       </c>
       <c r="D20">
@@ -2075,7 +2281,7 @@
       <c r="E20">
         <v>4.1329999999999999E-2</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -2084,7 +2290,7 @@
       <c r="B21">
         <v>0.86670000000000003</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>4.388537E-2</v>
       </c>
       <c r="D21">
@@ -2093,7 +2299,7 @@
       <c r="E21">
         <v>5.4670000000000003E-2</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -2102,7 +2308,7 @@
       <c r="B22">
         <v>0.92859999999999998</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>4.8670369999999998E-2</v>
       </c>
       <c r="D22">
@@ -2124,7 +2330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71E4D81-5B76-8F45-ADBE-6503F29EB6C7}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2140,16 +2346,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2188,7 +2394,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2205,7 +2411,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -2222,7 +2428,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -2239,7 +2445,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>0.85</v>
@@ -2256,7 +2462,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>0.88329999999999997</v>
@@ -2273,7 +2479,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>0.7833</v>
@@ -2290,7 +2496,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>0.86670000000000003</v>
@@ -2298,16 +2504,16 @@
       <c r="C10">
         <v>4.3889999999999998E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2.3504629999999999E-8</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1.2895190000000001E-5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>0.85</v>
@@ -2324,7 +2530,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>0.7167</v>
@@ -2341,7 +2547,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>0.9667</v>
@@ -2358,7 +2564,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>0.9</v>
@@ -2375,7 +2581,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0.91669999999999996</v>
@@ -2392,7 +2598,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>0.85</v>
@@ -2409,7 +2615,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>0.77780000000000005</v>
@@ -2426,7 +2632,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>0.88329999999999997</v>
@@ -2434,16 +2640,16 @@
       <c r="C18">
         <v>4.1439999999999998E-2</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>2.3504629999999999E-8</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>1.277296E-5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>0.88329999999999997</v>
@@ -2460,7 +2666,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>0.86670000000000003</v>
@@ -2477,7 +2683,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>0.72219999999999995</v>
